--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_6_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_6_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.8200000000006</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.441691376337985e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>3.441691376337985e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.29868138265213</v>
+        <v>49.41438068660503</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[36.54470819627725, 52.05265456902702]</t>
+          <t>[41.80582809805051, 57.022933275159545]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3396581285578097, 1.7421845146033483]</t>
+          <t>[1.415131825941347, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>52.05354382350012</v>
+        <v>56.78536377946965</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.76978609103061, 57.33730155596963]</t>
+          <t>[51.491603877724145, 62.07912368121515]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.48776776776822</v>
+        <v>19.3631431431436</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.66070070070113</v>
+        <v>18.63637637637682</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.3148348348353</v>
+        <v>20.08990990991039</v>
       </c>
     </row>
     <row r="3">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.8200000000006</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -681,39 +681,39 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>49.12363518867835</v>
+        <v>49.45537084780003</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[39.60109465738759, 58.64617571996911]</t>
+          <t>[40.882252557439216, 58.028489138160836]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.547650896327468e-13</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.547650896327468e-13</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="P3" t="n">
-        <v>1.000026490331886</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.8113422468730391, 1.1887107337907334]</t>
+          <t>[0.9245527929483472, 1.3019212798660416]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.461498003318411e-14</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>6.461498003318411e-14</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="T3" t="n">
-        <v>54.58355284667258</v>
+        <v>54.20307528575066</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.48381874204894, 59.683286951296225]</t>
+          <t>[49.50150810563903, 58.904642465862295]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>21.71051051051101</v>
+        <v>21.3357957957963</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.93513513513562</v>
+        <v>20.5571171171176</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.48588588588641</v>
+        <v>22.114474474475</v>
       </c>
     </row>
     <row r="4">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.8200000000006</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -767,39 +767,39 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>50.85588281331299</v>
+        <v>47.76388271258746</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[41.660377104162144, 60.05138852246383]</t>
+          <t>[38.42024822896587, 57.10751719620905]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.598721155460225e-14</v>
+        <v>2.069455717901292e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.598721155460225e-14</v>
+        <v>2.069455717901292e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6603948521059619</v>
+        <v>0.6478159025420398</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.47171060864711567, 0.8490790955648082]</t>
+          <t>[0.4465527095192714, 0.8490790955648082]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.609838841877604e-09</v>
+        <v>5.977741701634898e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>8.609838841877604e-09</v>
+        <v>5.977741701634898e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>52.19692749848984</v>
+        <v>52.55116765716807</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.468867079103966, 56.92498791787572]</t>
+          <t>[47.65792306599356, 57.44441224834257]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23.10618618618672</v>
+        <v>23.25653653653708</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.33081081081133</v>
+        <v>22.42594594594648</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.88156156156212</v>
+        <v>24.08712712712769</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.8200000000006</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -853,39 +853,39 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>54.25239831059587</v>
+        <v>50.9850779587748</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[45.53495309751537, 62.969843523676374]</t>
+          <t>[43.802517785162756, 58.167638132386834]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1949737182408082</v>
+        <v>0.2327105669325773</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.031447373909808896, 0.35850006257180755]</t>
+          <t>[0.09434212172942313, 0.37107901213573147]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.02052335072856937</v>
+        <v>0.001474933046643034</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02052335072856937</v>
+        <v>0.001474933046643034</v>
       </c>
       <c r="T5" t="n">
-        <v>51.79469122012326</v>
+        <v>51.34935474202927</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.594310509745064, 56.99507193050146]</t>
+          <t>[47.247824195584585, 55.450885288473955]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>25.01877877877936</v>
+        <v>24.96962962963022</v>
       </c>
       <c r="Y5" t="n">
-        <v>24.34678678678735</v>
+        <v>24.39859859859918</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.69077077077136</v>
+        <v>25.54066066066126</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8200000000006</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.771561172376096e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.771561172376096e-16</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>47.32204273575197</v>
+        <v>48.80274068658083</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[40.2171262711066, 54.42695920039734]</t>
+          <t>[39.539013660920574, 58.06646771224108]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>7.860379014346108e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>7.860379014346108e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2264210921506153</v>
+        <v>-0.2641579408423853</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.38994743648161556, -0.06289474781961513]</t>
+          <t>[-0.4654211338651546, -0.06289474781961601]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.007727638369058987</v>
+        <v>0.01125252462954762</v>
       </c>
       <c r="S6" t="n">
-        <v>0.007727638369058987</v>
+        <v>0.01125252462954762</v>
       </c>
       <c r="T6" t="n">
-        <v>45.13379903869777</v>
+        <v>51.82571507844427</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.85777375117314, 49.409824326222406]</t>
+          <t>[46.518043003548705, 57.13338715333983]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.930450450450472</v>
+        <v>1.090150150150176</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2584584584584646</v>
+        <v>0.259559559559567</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.602442442442479</v>
+        <v>1.920740740740785</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.8200000000006</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I7" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>50.29872931548864</v>
+        <v>49.03181919604843</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[38.679481628207355, 61.91797700276993]</t>
+          <t>[40.2675970475373, 57.79604134455956]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.17437187646874e-11</v>
+        <v>1.088018564132653e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>3.17437187646874e-11</v>
+        <v>1.088018564132653e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.6918422260157699</v>
+        <v>-0.754736973835386</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.9182633181663862, -0.4654211338651537]</t>
+          <t>[-0.9434212172942322, -0.5660527303765397]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.842539885110739e-07</v>
+        <v>2.853726144280699e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>1.842539885110739e-07</v>
+        <v>2.853726144280699e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>51.30357253608169</v>
+        <v>49.00111459843973</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.45023364869249, 57.15691142347089]</t>
+          <t>[44.3543231588791, 53.64790603800037]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.843043043043107</v>
+        <v>3.11471471471479</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.912592592592633</v>
+        <v>2.336036036036093</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.77349349349358</v>
+        <v>3.893393393393486</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8200000000006</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>9.992007221626409e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="I8" t="n">
-        <v>9.992007221626409e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>46.16172715316751</v>
+        <v>42.43925765896378</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[36.572524985307744, 55.75092932102728]</t>
+          <t>[34.25760751485052, 50.62090780307703]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.356692536091941e-12</v>
+        <v>1.296740492762183e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.356692536091941e-12</v>
+        <v>1.296740492762183e-13</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.157263359880925</v>
+        <v>-1.182421259008771</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.3711055024676169, -0.9434212172942322]</t>
+          <t>[-1.3962634015954647, -0.9685791164220783]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.26405569239796e-14</v>
+        <v>1.598721155460225e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>3.26405569239796e-14</v>
+        <v>1.598721155460225e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>51.87191739997353</v>
+        <v>52.34712383438866</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.52265146376541, 57.22118333618165]</t>
+          <t>[47.54267895106629, 57.15156871771103]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.755635635635745</v>
+        <v>4.879719719719837</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.876876876876967</v>
+        <v>3.997217217217311</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.634394394394523</v>
+        <v>5.762222222222363</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.82000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.996403042880956e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I9" t="n">
-        <v>1.996403042880956e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>44.20538768954373</v>
+        <v>50.65397432344014</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[33.87779098126982, 54.53298439781765]</t>
+          <t>[43.21495074702016, 58.092997899860116]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.379141493870975e-11</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4.379141493870975e-11</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.798789787641002</v>
+        <v>-1.735895039821387</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.0629477284833877, -1.534631846798617]</t>
+          <t>[-1.8868424345884645, -1.58494764505431]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>49.56803974893699</v>
+        <v>52.10518716326305</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.53035856185471, 55.60572093601927]</t>
+          <t>[47.55864012576009, 56.651734200766]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.533053053053088</v>
+        <v>6.29633633633637</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.573653653653682</v>
+        <v>5.748828828828859</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.492452452452494</v>
+        <v>6.843843843843882</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.82000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.561418075534675e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.561418075534675e-14</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>48.52767790410369</v>
+        <v>46.32895757491627</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[40.18586287200189, 56.86949293620549]</t>
+          <t>[36.64447368261111, 56.01344146722144]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>1.644462344074782e-12</v>
       </c>
       <c r="O10" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>1.644462344074782e-12</v>
       </c>
       <c r="P10" t="n">
         <v>-1.396263401595464</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.58494764505431, -1.2075791581366175]</t>
+          <t>[-1.62268449374608, -1.1698423094448476]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T10" t="n">
-        <v>52.25577691443354</v>
+        <v>51.6130271735116</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.16788752828805, 57.34366630057903]</t>
+          <t>[45.90657533495265, 57.31947901207056]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.07111111111114</v>
+        <v>5.064444444444472</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.385825825825852</v>
+        <v>4.243183183183205</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.756396396396428</v>
+        <v>5.88570570570574</v>
       </c>
     </row>
     <row r="11">
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.82000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1369,39 +1369,39 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>44.61375813434978</v>
+        <v>48.98748807105589</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[36.84009017131917, 52.38742609738039]</t>
+          <t>[39.58728198389846, 58.38769415821333]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>1.116884362772907e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>1.116884362772907e-13</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.157263359880925</v>
+        <v>-1.081789662497386</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.3333686537758478, -0.9811580659860013]</t>
+          <t>[-1.2830528555201557, -0.8805264694746171]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.085620730620576e-14</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.085620730620576e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>49.92046414437911</v>
+        <v>52.79726904329942</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.679910202757696, 54.161018086000524]</t>
+          <t>[47.781433031605296, 57.81310505499355]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.203083083083104</v>
+        <v>3.923803803803825</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.563483483483501</v>
+        <v>3.193793793793811</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.842682682682707</v>
+        <v>4.653813813813838</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_6_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_6_sine_10_.xlsx
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.93000000000061</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -595,11 +595,11 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>49.41438068660503</v>
+        <v>46.66372231176579</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[41.80582809805051, 57.022933275159545]</t>
+          <t>[39.54816187062757, 53.77928275290401]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -609,11 +609,11 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.591237119836271</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.415131825941347, 1.7673424137311953]</t>
+          <t>[1.3396581285578097, 1.6667108172198102]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>56.78536377946965</v>
+        <v>52.18903635673966</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.491603877724145, 62.07912368121515]</t>
+          <t>[47.483788568519635, 56.89428414495969]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.3631431431436</v>
+        <v>19.6504504504509</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.63637637637682</v>
+        <v>18.97819819819864</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.08990990991039</v>
+        <v>20.32270270270317</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.93000000000061</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.262457136723242e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.262457136723242e-14</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>49.45537084780003</v>
+        <v>44.11818334018955</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[40.882252557439216, 58.028489138160836]</t>
+          <t>[33.96524829825531, 54.271118382123795]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>2.847500013558601e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>2.847500013558601e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.113237036407194</v>
+        <v>1.062921238151501</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 1.3019212798660416]</t>
+          <t>[0.8113422468730391, 1.3145002294299637]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>6.323563894738982e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>6.323563894738982e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>54.20307528575066</v>
+        <v>45.92797122183881</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.50150810563903, 58.904642465862295]</t>
+          <t>[40.41090422699468, 51.44503821668294]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>21.3357957957963</v>
+        <v>21.46036036036086</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.5571171171176</v>
+        <v>20.4261261261266</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.114474474475</v>
+        <v>22.49459459459512</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.93000000000061</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.665334536937735e-15</v>
       </c>
       <c r="I4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.665334536937735e-15</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>47.76388271258746</v>
+        <v>47.31406204599832</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[38.42024822896587, 57.10751719620905]</t>
+          <t>[37.263914851115636, 57.364209240881]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.069455717901292e-13</v>
+        <v>2.678968158420503e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>2.069455717901292e-13</v>
+        <v>2.678968158420503e-12</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6478159025420398</v>
+        <v>0.6352369529781168</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.4465527095192714, 0.8490790955648082]</t>
+          <t>[0.42139481039142535, 0.8490790955648082]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.977741701634898e-08</v>
+        <v>3.30835510542471e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>5.977741701634898e-08</v>
+        <v>3.30835510542471e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>52.55116765716807</v>
+        <v>49.48115771456114</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.65792306599356, 57.44441224834257]</t>
+          <t>[44.29182216102844, 54.67049326809384]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23.25653653653708</v>
+        <v>23.2185585585591</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.42594594594648</v>
+        <v>22.33945945945998</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.08712712712769</v>
+        <v>24.09765765765821</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.93000000000061</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -853,11 +853,11 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.9850779587748</v>
+        <v>48.71442180227426</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[43.802517785162756, 58.167638132386834]</t>
+          <t>[41.33983388189128, 56.08900972265724]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2327105669325773</v>
+        <v>0.1320789704211931</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.09434212172942313, 0.37107901213573147]</t>
+          <t>[-0.018868424345883206, 0.2830263651882694]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001474933046643034</v>
+        <v>0.08480323047553862</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001474933046643034</v>
+        <v>0.08480323047553862</v>
       </c>
       <c r="T5" t="n">
-        <v>51.34935474202927</v>
+        <v>48.76954801748852</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.247824195584585, 55.450885288473955]</t>
+          <t>[44.295238380305776, 53.24385765467126]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.96962962963022</v>
+        <v>25.28702702702761</v>
       </c>
       <c r="Y5" t="n">
-        <v>24.39859859859918</v>
+        <v>24.66648648648706</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.54066066066126</v>
+        <v>25.90756756756817</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.93000000000061</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>48.80274068658083</v>
+        <v>46.66545444381181</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[39.539013660920574, 58.06646771224108]</t>
+          <t>[39.717755853545825, 53.6131530340778]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>7.860379014346108e-14</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>7.860379014346108e-14</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2641579408423853</v>
+        <v>-0.2264210921506153</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.4654211338651546, -0.06289474781961601]</t>
+          <t>[-0.37736848691769254, -0.07547369738353815]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.01125252462954762</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01125252462954762</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="T6" t="n">
-        <v>51.82571507844427</v>
+        <v>52.06653652103113</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.518043003548705, 57.13338715333983]</t>
+          <t>[47.98747669814398, 56.145596343918285]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.090150150150176</v>
+        <v>0.9308108108108293</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.259559559559567</v>
+        <v>0.3102702702702742</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.920740740740785</v>
+        <v>1.551351351351384</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.93000000000061</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>49.03181919604843</v>
+        <v>43.98015649785619</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[40.2675970475373, 57.79604134455956]</t>
+          <t>[33.8977887631315, 54.06252423258087]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.088018564132653e-14</v>
+        <v>2.549938038498567e-11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.088018564132653e-14</v>
+        <v>2.549938038498567e-11</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.754736973835386</v>
+        <v>-0.5408948312486928</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.9434212172942322, -0.5660527303765397]</t>
+          <t>[-0.779894872963232, -0.3018947895341535]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.853726144280699e-10</v>
+        <v>3.940283151693258e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>2.853726144280699e-10</v>
+        <v>3.940283151693258e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>49.00111459843973</v>
+        <v>50.60778957102936</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.3543231588791, 53.64790603800037]</t>
+          <t>[45.25781486999119, 55.95776427206752]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.11471471471479</v>
+        <v>2.223603603603653</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.336036036036093</v>
+        <v>1.241081081081106</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.893393393393486</v>
+        <v>3.2061261261262</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.93000000000061</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>42.43925765896378</v>
+        <v>48.21329771740574</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[34.25760751485052, 50.62090780307703]</t>
+          <t>[40.63749567948452, 55.789099755326966]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.296740492762183e-13</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.296740492762183e-13</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.182421259008771</v>
+        <v>-1.25789495639231</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.3962634015954647, -0.9685791164220783]</t>
+          <t>[-1.4214213007233099, -1.0943686120613094]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.598721155460225e-14</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.598721155460225e-14</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>52.34712383438866</v>
+        <v>54.67360745705663</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.54267895106629, 57.15156871771103]</t>
+          <t>[50.34275882264528, 59.00445609146797]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.879719719719837</v>
+        <v>5.171171171171292</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.997217217217311</v>
+        <v>4.498918918919024</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.762222222222363</v>
+        <v>5.843423423423559</v>
       </c>
     </row>
     <row r="9">
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.79000000000012</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1197,25 +1197,25 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>50.65397432344014</v>
+        <v>50.3886985059375</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[43.21495074702016, 58.092997899860116]</t>
+          <t>[41.417812586966384, 59.359584424908626]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>9.547918011776346e-15</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.547918011776346e-15</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.735895039821387</v>
+        <v>-1.912000333716311</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.8868424345884645, -1.58494764505431]</t>
+          <t>[-2.1006845771751568, -1.7233160902574642]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>52.10518716326305</v>
+        <v>50.5019035746299</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.55864012576009, 56.651734200766]</t>
+          <t>[45.43891077819677, 55.56489637106303]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.29633633633637</v>
+        <v>6.883363363363392</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.748828828828859</v>
+        <v>6.20408408408411</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.843843843843882</v>
+        <v>7.562642642642674</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.79000000000012</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>6.561418075534675e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I10" t="n">
-        <v>6.561418075534675e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>46.32895757491627</v>
+        <v>51.58011961609616</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[36.64447368261111, 56.01344146722144]</t>
+          <t>[44.061881541523164, 59.09835769066916]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.644462344074782e-12</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.644462344074782e-12</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.396263401595464</v>
+        <v>-1.635263443310002</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.62268449374608, -1.1698423094448476]</t>
+          <t>[-1.7862108380770794, -1.484316048542925]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>51.6130271735116</v>
+        <v>52.95718214460864</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.90657533495265, 57.31947901207056]</t>
+          <t>[48.02579528210121, 57.88856900711607]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.064444444444472</v>
+        <v>5.88708708708711</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.243183183183205</v>
+        <v>5.343663663663684</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.88570570570574</v>
+        <v>6.430510510510536</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1355,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.79000000000012</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="I11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.98748807105589</v>
+        <v>44.70166664202697</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[39.58728198389846, 58.38769415821333]</t>
+          <t>[35.924210368909, 53.47912291514494]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.116884362772907e-13</v>
+        <v>2.331468351712829e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.116884362772907e-13</v>
+        <v>2.331468351712829e-13</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.081789662497386</v>
+        <v>-1.157263359880925</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, -0.8805264694746171]</t>
+          <t>[-1.3585265529036938, -0.9560001668581553]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.085620730620576e-14</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="S11" t="n">
-        <v>4.085620730620576e-14</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="T11" t="n">
-        <v>52.79726904329942</v>
+        <v>53.30906174307492</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.781433031605296, 57.81310505499355]</t>
+          <t>[48.54585581839836, 58.07226766775148]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>3.923803803803825</v>
+        <v>4.166246246246263</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.193793793793811</v>
+        <v>3.441681681681697</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.653813813813838</v>
+        <v>4.89081081081083</v>
       </c>
     </row>
   </sheetData>
